--- a/Prefered_PARX_model_forecast/Resultater_PAR/lambda_f_2para_PAR_2.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/lambda_f_2para_PAR_2.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,1722 +676,1722 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.71274550272704229</v>
+        <v>0.71274560502295925</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.5412366448757522</v>
+        <v>1.5412373859201169</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.90300171905799798</v>
+        <v>0.90300143768717034</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1.0360370032708595</v>
+        <v>1.0360369616471956</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.80062749515561271</v>
+        <v>0.80062729823248646</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.8010539690305769</v>
+        <v>1.8010539190883288</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.7534008185999748</v>
+        <v>1.7534008375811241</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.2110541992949999</v>
+        <v>1.2110544729335597</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.3621074533937856</v>
+        <v>1.3621074824982762</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.87290392184513266</v>
+        <v>0.87290376715838569</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2.0474616787190021</v>
+        <v>2.0474608800146208</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1.7809833028548707</v>
+        <v>1.7809832286226324</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2.2549701155474127</v>
+        <v>2.2549700708810532</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1.3077915066632135</v>
+        <v>1.307791110542337</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.6219770951673136</v>
+        <v>1.6219776458984321</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1.1802793022710709</v>
+        <v>1.1802794384969324</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.83720533821013365</v>
+        <v>0.83720518524707577</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1.270815265728531</v>
+        <v>1.2708151265460585</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1.1060254247261976</v>
+        <v>1.1060254160669181</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1.0716250688535749</v>
+        <v>1.0716252197536258</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1.321909504297633</v>
+        <v>1.3219092555587006</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1.9036678520795629</v>
+        <v>1.9036678420167661</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.97631721042815278</v>
+        <v>0.97631701724250886</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1.545384656921424</v>
+        <v>1.5453847774670386</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>2.4579987603047284</v>
+        <v>2.4579990805369869</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.83866260044500651</v>
+        <v>0.83866254962551223</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.7176052549941621</v>
+        <v>1.7176053655078019</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>2.1690866635838537</v>
+        <v>2.1690868788173789</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1.7690111933815071</v>
+        <v>1.7690113898711424</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.1949029691502249</v>
+        <v>1.194903391187482</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1.3146046703451728</v>
+        <v>1.3146050036970662</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1.0977767026511407</v>
+        <v>1.0977765816614289</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.0512356691335116</v>
+        <v>1.0512354344520793</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>2.2637920794524722</v>
+        <v>2.2637916589212597</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.80878372799771758</v>
+        <v>0.80878368220850461</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1.1994653402954045</v>
+        <v>1.1994648433461024</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.5819497335964956</v>
+        <v>0.58195006379611469</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.90965494000965763</v>
+        <v>0.90965525679085502</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1.6976540852248321</v>
+        <v>1.6976542603184379</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.68917529459641447</v>
+        <v>0.68917526866230094</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1.3766826929657072</v>
+        <v>1.37668239638878</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1.309300062305909</v>
+        <v>1.3092999608789739</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.2365413065919189</v>
+        <v>2.2365416286830668</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>3.5023313100531981</v>
+        <v>3.5023327127486388</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>3.0311161046028738</v>
+        <v>3.0311162045401128</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>2.4349868241759651</v>
+        <v>2.4349862796960764</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>2.0690783521007385</v>
+        <v>2.0690789215607652</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>3.640633447691235</v>
+        <v>3.6406335410299686</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>4.3007191065781605</v>
+        <v>4.3007193784154882</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>3.6902309189629925</v>
+        <v>3.6902308625759641</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>5.0614792909017101</v>
+        <v>5.0614775019780156</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>3.5963685103914305</v>
+        <v>3.5963691692511039</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>4.0133202417564897</v>
+        <v>4.0133190949829096</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>4.3509136926903667</v>
+        <v>4.350913081961715</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>6.1820581361247235</v>
+        <v>6.1820584917281431</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>4.5600055253431382</v>
+        <v>4.5600045808226186</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>4.4623618443395934</v>
+        <v>4.4623614061366697</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>6.8425967840760027</v>
+        <v>6.8426001018718647</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>6.1753688890963723</v>
+        <v>6.1753701638717704</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>6.5326277794762406</v>
+        <v>6.532626747703393</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>4.8814744587604242</v>
+        <v>4.8814752127856886</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>6.8512821747400494</v>
+        <v>6.851282642834974</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>7.8717438513868334</v>
+        <v>7.8717416648307141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>6.1074010320522509</v>
+        <v>6.1074006364322333</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>4.3082424906569585</v>
+        <v>4.3082427133732235</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>5.4939499504058338</v>
+        <v>5.4939471769374739</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>6.2374081994117017</v>
+        <v>6.2374070105214479</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>4.7601621445224511</v>
+        <v>4.7601622881234489</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>5.784272139355215</v>
+        <v>5.7842720845060498</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>6.7488181487658352</v>
+        <v>6.7488190415944089</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>6.0355008221925708</v>
+        <v>6.0355008786332913</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>4.0142836513114881</v>
+        <v>4.0142836899499965</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>5.7270521526724414</v>
+        <v>5.7270515985198021</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>8.2650676776096859</v>
+        <v>8.2650668263497593</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>4.2133614253228249</v>
+        <v>4.2133610270039608</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>4.5625343259405557</v>
+        <v>4.562534844121874</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>3.1756330013181158</v>
+        <v>3.175633058033803</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>4.0761973511173917</v>
+        <v>4.076197553387745</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>4.3061558829925515</v>
+        <v>4.3061550192055496</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>4.1531576104071091</v>
+        <v>4.153157012604586</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>6.2610083696854355</v>
+        <v>6.2610089271845784</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>5.7376274584978137</v>
+        <v>5.7376281152193931</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>6.2821142141902762</v>
+        <v>6.2821142817749323</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>6.2073265757000424</v>
+        <v>6.207326527238699</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>6.1910178432068408</v>
+        <v>6.1910179400488676</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>4.8661770448665589</v>
+        <v>4.8661774223330401</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>6.4284309997294784</v>
+        <v>6.4284342658541753</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>7.0920240775936669</v>
+        <v>7.092026343473246</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>5.9336384102555551</v>
+        <v>5.9336381498803075</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>6.9274166918936171</v>
+        <v>6.9274157301260697</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>5.6653580485765289</v>
+        <v>5.6653586144461663</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>7.2288268984788377</v>
+        <v>7.2288250363281001</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>6.579448781095631</v>
+        <v>6.5794484166726361</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>7.4802973700340827</v>
+        <v>7.4802971375442198</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>8.8556542279435462</v>
+        <v>8.8556533345329758</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>9.9848502506614416</v>
+        <v>9.9848501286432771</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>9.1369499747345326</v>
+        <v>9.136951844751259</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>10.510629850456048</v>
+        <v>10.510632189782193</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>9.9705299196328898</v>
+        <v>9.9705299821338649</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>11.423694928723174</v>
+        <v>11.42369584760584</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>11.373474036555486</v>
+        <v>11.373474071527859</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>11.827342461970282</v>
+        <v>11.827342790618607</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>12.185408774641669</v>
+        <v>12.185409399080768</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>14.875913110047058</v>
+        <v>14.875912737553056</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>14.704919406296264</v>
+        <v>14.704918957161413</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>10.852881820703809</v>
+        <v>10.852881117622175</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>9.3032035762393512</v>
+        <v>9.3032032193021656</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>10.995804791885206</v>
+        <v>10.995804058706641</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>15.105765263958157</v>
+        <v>15.105766047824217</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>11.908187802612019</v>
+        <v>11.908188884626302</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>13.671399840937891</v>
+        <v>13.671400549349849</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>10.856238761616028</v>
+        <v>10.856236004614516</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>11.15059560288689</v>
+        <v>11.150595939145923</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>10.190667703515643</v>
+        <v>10.190666005941848</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>9.5211881537854239</v>
+        <v>9.5211893524699995</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>12.874727215066258</v>
+        <v>12.874722926837585</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>17.046297389017937</v>
+        <v>17.046296799172296</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>14.300510971785041</v>
+        <v>14.300514606874939</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>12.677409237433295</v>
+        <v>12.677409324933175</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>12.228666366348424</v>
+        <v>12.228665166765447</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>10.061445272590753</v>
+        <v>10.061445760928166</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>11.046117855480228</v>
+        <v>11.04611640893666</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>12.893137281839479</v>
+        <v>12.893140287946682</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>11.573263327602302</v>
+        <v>11.573263598007465</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>12.812410479273684</v>
+        <v>12.812405094991178</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>13.404141177802027</v>
+        <v>13.404143981357018</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>9.8145747523156057</v>
+        <v>9.8145745030353719</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>9.0699173116099345</v>
+        <v>9.0699181600070737</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>9.4365501429630658</v>
+        <v>9.4365498289892571</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>11.607325135430234</v>
+        <v>11.607325899020974</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>13.380031981663262</v>
+        <v>13.380027249497459</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>14.905375406173485</v>
+        <v>14.905380554744283</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>15.42634892427559</v>
+        <v>15.426346924645088</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>15.820234476485322</v>
+        <v>15.820232682436821</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>18.450027463736948</v>
+        <v>18.450029256224372</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>20.066909594660462</v>
+        <v>20.066912598476499</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>25.973279964830862</v>
+        <v>25.973278728953762</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>20.416953204675043</v>
+        <v>20.416946550871707</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>22.154490646340808</v>
+        <v>22.154488215288428</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>28.25702437836145</v>
+        <v>28.257021296609992</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>29.146328000374496</v>
+        <v>29.146327875679596</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>26.825008461307259</v>
+        <v>26.825012552946689</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>30.354667175861522</v>
+        <v>30.354665296808189</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>37.299721207130432</v>
+        <v>37.299722439862315</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>45.823818149401461</v>
+        <v>45.823817695572373</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>47.08217578680371</v>
+        <v>47.082177080208915</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>49.100062592776496</v>
+        <v>49.100064224667477</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>50.088610281685689</v>
+        <v>50.088597838972071</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>51.313743653104936</v>
+        <v>51.313731210708738</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>44.788796266496774</v>
+        <v>44.788788353902305</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>55.938331182398585</v>
+        <v>55.938342394398774</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>49.567369537546149</v>
+        <v>49.567368372462909</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>49.046609025641288</v>
+        <v>49.046597352504349</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>41.888378820790251</v>
+        <v>41.88837733078897</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>49.345373661418009</v>
+        <v>49.345365616786211</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>46.144744423415531</v>
+        <v>46.144736452587793</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>43.891466682284396</v>
+        <v>43.891464506709887</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>57.637431778053788</v>
+        <v>57.637429678309474</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>46.542375305348962</v>
+        <v>46.542374845313475</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>40.127023690315269</v>
+        <v>40.127018042917506</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>37.491088420180873</v>
+        <v>37.491084320592854</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>41.906301629390825</v>
+        <v>41.906302554294676</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>41.139116663384797</v>
+        <v>41.139115621210578</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>36.299213813983826</v>
+        <v>36.299221979745639</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>42.504166799370751</v>
+        <v>42.504163873968793</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>33.799078713698833</v>
+        <v>33.799074311545496</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>35.614223775885044</v>
+        <v>35.614219710362292</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>38.155640008758958</v>
+        <v>38.155648087245211</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>34.663199217651076</v>
+        <v>34.663193177778396</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>32.867071894548495</v>
+        <v>32.867067656183565</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>31.236368761938319</v>
+        <v>31.236366874911326</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>33.618120278162209</v>
+        <v>33.618122756171132</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>29.386131363897093</v>
+        <v>29.386127093520123</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>29.811792121815422</v>
+        <v>29.811785849854857</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>26.567267091098955</v>
+        <v>26.567263756154055</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>27.646394029280511</v>
+        <v>27.646401888866293</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>24.18105078327077</v>
+        <v>24.181052422151875</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>23.40746607107495</v>
+        <v>23.40746739640807</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>31.129693178672085</v>
+        <v>31.129691581630908</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>29.948780567932253</v>
+        <v>29.948774046796558</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>21.761913162851663</v>
+        <v>21.761915401780911</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>23.556106462553757</v>
+        <v>23.556103191477455</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>22.686459545054497</v>
+        <v>22.686465400964767</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>18.401839891311859</v>
+        <v>18.401842560685267</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>17.385609273613554</v>
+        <v>17.385605437047413</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>19.396903718221793</v>
+        <v>19.396901477563894</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>15.718401423518849</v>
+        <v>15.718400368644101</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>16.131031368311611</v>
+        <v>16.131025123904681</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>14.949047178342854</v>
+        <v>14.949045984751546</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>14.037233628904701</v>
+        <v>14.037235955572369</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>10.092981406837477</v>
+        <v>10.092980870104896</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>11.30281399471766</v>
+        <v>11.302813826829762</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>12.801938458557943</v>
+        <v>12.80193965987146</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>11.062235798217342</v>
+        <v>11.062238678874531</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>9.7678897837976209</v>
+        <v>9.7678866804886333</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>9.4019424457091709</v>
+        <v>9.4019430187554107</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>10.674937306479015</v>
+        <v>10.674938935557977</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>7.4143584563003166</v>
+        <v>7.4143582049700871</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>8.2689936107619513</v>
+        <v>8.2689980357899238</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>9.5062063935018024</v>
+        <v>9.5062061324074527</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>10.903167052135457</v>
+        <v>10.903166595768992</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>10.508891871830043</v>
+        <v>10.50888547092417</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>7.732613351036087</v>
+        <v>7.7326148841194913</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>6.7516524623641798</v>
+        <v>6.7516522157467893</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>8.6104418479048217</v>
+        <v>8.6104425359977235</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>6.7749745005572484</v>
+        <v>6.7749752464875712</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>7.030844841497383</v>
+        <v>7.0308458760518509</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>5.9190189033538161</v>
+        <v>5.9190177257959151</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>6.1885152435316506</v>
+        <v>6.1885166345972316</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>8.0423926210561962</v>
+        <v>8.0423926219968287</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>8.6291739964625869</v>
+        <v>8.6291707034651939</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>7.3711239502670924</v>
+        <v>7.3711225601125641</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>6.0028924875017111</v>
+        <v>6.0028929550759011</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>7.3689941638807133</v>
+        <v>7.368996439142137</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>6.9869101049904057</v>
+        <v>6.9869108021406312</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>8.4654338406466092</v>
+        <v>8.4654340958902647</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>9.3446979756127728</v>
+        <v>9.3447012882755729</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>7.9699873657172837</v>
+        <v>7.9699828824363657</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>7.7669475850281486</v>
+        <v>7.7669470501506686</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>6.7127607375246345</v>
+        <v>6.7127617516830096</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>6.9945651904957877</v>
+        <v>6.9945645791445283</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>9.4383820339519691</v>
+        <v>9.4383819719729463</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>8.3797897408313471</v>
+        <v>8.3797913287025843</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>8.2646723513024725</v>
+        <v>8.2646722229540082</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>7.0377517621269678</v>
+        <v>7.0377508358954373</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>9.9727518132215636</v>
+        <v>9.972755994913534</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>7.2949373124401253</v>
+        <v>7.2949365154514965</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>6.7038657864027913</v>
+        <v>6.7038627988917305</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>8.4265467608405924</v>
+        <v>8.4265458371351851</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>8.3876229646722109</v>
+        <v>8.3876243471228058</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>8.1814020527022411</v>
+        <v>8.1814016720714804</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>5.601055326800207</v>
+        <v>5.6010565575510167</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>7.6335416254962638</v>
+        <v>7.6335378592685146</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>7.1328444098723081</v>
+        <v>7.1328449152851157</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>6.9784947546058671</v>
+        <v>6.978495817998299</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>8.8282330767629595</v>
+        <v>8.8282335754231944</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>8.0659852412992645</v>
+        <v>8.065985190153139</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>7.4470758425708938</v>
+        <v>7.4470761461574391</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>5.7417074022743613</v>
+        <v>5.7417075882017983</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>5.7896902687481804</v>
+        <v>5.7896876480412347</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>7.6548354054949268</v>
+        <v>7.6548361929710609</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>10.40232397764305</v>
+        <v>10.402322202513973</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>7.7353751035667244</v>
+        <v>7.7353729770772315</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>7.8751798725662283</v>
+        <v>7.8751783044107446</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>9.9963187850424475</v>
+        <v>9.996317358182397</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>9.3396158922025396</v>
+        <v>9.3396122973923372</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>9.9015733559111965</v>
+        <v>9.9015715806418605</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>9.313384513836823</v>
+        <v>9.3133832578660893</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>12.55896511548378</v>
+        <v>12.558963419222154</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>10.487640841337434</v>
+        <v>10.487640635766311</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>11.752772672888545</v>
+        <v>11.752774065815046</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>10.049967019412188</v>
+        <v>10.049962948547753</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>8.9678372774486661</v>
+        <v>8.967834776615387</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>8.453456413222634</v>
+        <v>8.4534579065971762</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>7.92943271568077</v>
+        <v>7.9294317149838012</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>7.0315731530849526</v>
+        <v>7.0315745495139055</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>10.368577682060389</v>
+        <v>10.368577538015135</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>9.0246490505378993</v>
+        <v>9.0246494451708479</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>9.1613724757503334</v>
+        <v>9.1613689023614633</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>8.4606798530013201</v>
+        <v>8.4606777474919639</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>7.8724377933118852</v>
+        <v>7.8724387665448559</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>7.1396218709595463</v>
+        <v>7.139619308412847</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>7.8210271979683643</v>
+        <v>7.8210237100705857</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>8.5908490744466643</v>
+        <v>8.5908501249712383</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>8.2817219245998537</v>
+        <v>8.2817176923875575</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>8.9276722553739152</v>
+        <v>8.927675497229103</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>7.8264957717353543</v>
+        <v>7.8264987730360982</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>8.5847095193750729</v>
+        <v>8.5847133738544397</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>9.7626156278527354</v>
+        <v>9.7626177702682728</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>11.113935763105653</v>
+        <v>11.113936534516178</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>10.403656259398616</v>
+        <v>10.403655942414893</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>9.2327578933284578</v>
+        <v>9.2327551527744394</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>8.49847611042218</v>
+        <v>8.4984757270031981</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>7.536965969276995</v>
+        <v>7.5369662445535832</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>7.9700188374453536</v>
+        <v>7.9700176110948977</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>5.3384019858194645</v>
+        <v>5.338403618663806</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>6.5312468632463059</v>
+        <v>6.5312472217198057</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>9.4300179137091291</v>
+        <v>9.4300156302265687</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>9.0990429198235461</v>
+        <v>9.09904086565912</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>10.328840252200584</v>
+        <v>10.328835942521046</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>7.3072761848094734</v>
+        <v>7.3072715688596084</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>6.9312092305787338</v>
+        <v>6.9312076545304677</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>7.1760851786065132</v>
+        <v>7.176086974870163</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>7.2545353743890733</v>
+        <v>7.2545325212052294</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>7.0976743824258639</v>
+        <v>7.0976756041209326</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>6.3182910071329035</v>
+        <v>6.3182913614934613</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>6.7979581344655955</v>
+        <v>6.7979615482580398</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>8.9590335072515739</v>
+        <v>8.9590376067477884</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>9.3219113158277089</v>
+        <v>9.3219140564168459</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>7.9271034419997148</v>
+        <v>7.9271030078659459</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>11.366149837843952</v>
+        <v>11.366152451934187</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>7.5899026258273068</v>
+        <v>7.5899007024705991</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>9.2814360435857886</v>
+        <v>9.2814422078336705</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>9.6659931260886971</v>
+        <v>9.6659936525654562</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>11.264964253426736</v>
+        <v>11.26496097718892</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>9.3880973361816089</v>
+        <v>9.3880964996783955</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>8.7925731731557928</v>
+        <v>8.7925751053497105</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>7.3565697108954762</v>
+        <v>7.3565710249195924</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>7.0825005128788643</v>
+        <v>7.0824958427148585</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>8.9141628966638393</v>
+        <v>8.9141623016339775</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>6.8360599700050066</v>
+        <v>6.836060437049559</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>8.9592300882999343</v>
+        <v>8.9592307846790327</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>7.0005447777127809</v>
+        <v>7.0005448467562719</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>7.069472417863226</v>
+        <v>7.069469995544166</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>6.3950511431208348</v>
+        <v>6.3950498571060184</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>7.388210334444504</v>
+        <v>7.3882122721431784</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>7.3692400688387245</v>
+        <v>7.3692417274799009</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>8.9535250033395126</v>
+        <v>8.9535251486677048</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>8.7783767851920089</v>
+        <v>8.7783753103015627</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>7.466798238304599</v>
+        <v>7.466796401182652</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>5.9925282329077678</v>
+        <v>5.9925299577729731</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>8.416398795945069</v>
+        <v>8.4164033255706308</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>7.6687975775982551</v>
+        <v>7.6687968949305976</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>6.5521145092023518</v>
+        <v>6.5521110545898882</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>6.8730074422622183</v>
+        <v>6.8730066422793463</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>5.9462083338559175</v>
+        <v>5.9462083123081175</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>4.6128874131430404</v>
+        <v>4.6128887658407498</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>3.8397594008122478</v>
+        <v>3.839758504226471</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>5.7884194308405963</v>
+        <v>5.7884201527979364</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>4.1965357819027576</v>
+        <v>4.1965349570555812</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>6.3806832800016986</v>
+        <v>6.3806853287973624</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>5.0565150095077982</v>
+        <v>5.0565158741030887</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>3.7685286698085374</v>
+        <v>3.7685281839223959</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>3.0064674208609068</v>
+        <v>3.0064676138046469</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>4.0970204706332325</v>
+        <v>4.0970207681908821</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>4.4661471184001806</v>
+        <v>4.466149297283831</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>3.3963666713557079</v>
+        <v>3.3963664743957294</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>2.7032719366157476</v>
+        <v>2.7032717778269975</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>2.1348407187317435</v>
+        <v>2.1348409818121956</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>2.4582945284940805</v>
+        <v>2.4582943023301205</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>2.9065360971944307</v>
+        <v>2.9065362052295116</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>2.713845371205954</v>
+        <v>2.7138468857190183</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>1.9621238808836818</v>
+        <v>1.962123848999016</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>2.2269937700934905</v>
+        <v>2.2269934108903513</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>1.9722946352991801</v>
+        <v>1.972295041275145</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>2.0596069582219583</v>
+        <v>2.0596063582236352</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>2.088882481809752</v>
+        <v>2.0888818209468907</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>1.7536106696132485</v>
+        <v>1.7536113584837933</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>1.2974892080531535</v>
+        <v>1.2974891016927792</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>0.97345778892913171</v>
+        <v>0.97345773034217542</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>0.86640261305012445</v>
+        <v>0.86640261108267014</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>1.6945060615955878</v>
+        <v>1.6945068779351118</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>2.5017626565330815</v>
+        <v>2.5017624306263233</v>
       </c>
     </row>
     <row r="465">
       <c r="A465">
-        <v>1.8903125384651926</v>
+        <v>1.8903119858523922</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/lambda_f_2para_PAR_2.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/lambda_f_2para_PAR_2.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,11 +42,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -54,6 +56,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,1722 +680,1722 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.71274560502295925</v>
+        <v>0.71274541448350925</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.5412373859201169</v>
+        <v>1.5412370697088942</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.90300143768717034</v>
+        <v>0.9030016747859948</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1.0360369616471956</v>
+        <v>1.0360372267047715</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.80062729823248646</v>
+        <v>0.8006275111955401</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.8010539190883288</v>
+        <v>1.8010537878885582</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.7534008375811241</v>
+        <v>1.7534004596807686</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.2110544729335597</v>
+        <v>1.2110543539747325</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.3621074824982762</v>
+        <v>1.3621079960565066</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.87290376715838569</v>
+        <v>0.87290384613718097</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2.0474608800146208</v>
+        <v>2.0474615732042145</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1.7809832286226324</v>
+        <v>1.7809828302263182</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2.2549700708810532</v>
+        <v>2.2549701434748481</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1.307791110542337</v>
+        <v>1.3077915292751647</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.6219776458984321</v>
+        <v>1.6219773244798898</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1.1802794384969324</v>
+        <v>1.1802794373166643</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.83720518524707577</v>
+        <v>0.83720522997644231</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1.2708151265460585</v>
+        <v>1.2708153860135305</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1.1060254160669181</v>
+        <v>1.1060255347358063</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1.0716252197536258</v>
+        <v>1.071625424564123</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1.3219092555587006</v>
+        <v>1.3219099277546766</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1.9036678420167661</v>
+        <v>1.9036680144066853</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.97631701724250886</v>
+        <v>0.97631725591290852</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1.5453847774670386</v>
+        <v>1.5453847638761125</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>2.4579990805369869</v>
+        <v>2.4579989973810825</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.83866254962551223</v>
+        <v>0.83866266528322697</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.7176053655078019</v>
+        <v>1.7176047525175524</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>2.1690868788173789</v>
+        <v>2.1690873795794703</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1.7690113898711424</v>
+        <v>1.7690113190905141</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.194903391187482</v>
+        <v>1.1949033209132185</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1.3146050036970662</v>
+        <v>1.314604521281705</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1.0977765816614289</v>
+        <v>1.0977767192564385</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.0512354344520793</v>
+        <v>1.0512354957996886</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>2.2637916589212597</v>
+        <v>2.2637920565933918</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.80878368220850461</v>
+        <v>0.80878386886083142</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1.1994648433461024</v>
+        <v>1.1994651048142921</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.58195006379611469</v>
+        <v>0.58195000558320187</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.90965525679085502</v>
+        <v>0.90965525281414661</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1.6976542603184379</v>
+        <v>1.6976543187004018</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.68917526866230094</v>
+        <v>0.68917512288753591</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1.37668239638878</v>
+        <v>1.3766824206023813</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1.3092999608789739</v>
+        <v>1.3093001086905531</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.2365416286830668</v>
+        <v>2.2365410359463813</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>3.5023327127486388</v>
+        <v>3.5023320796707083</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>3.0311162045401128</v>
+        <v>3.0311155856626986</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>2.4349862796960764</v>
+        <v>2.4349858299626854</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>2.0690789215607652</v>
+        <v>2.0690787489933955</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>3.6406335410299686</v>
+        <v>3.6406336840942672</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>4.3007193784154882</v>
+        <v>4.3007173910593277</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>3.6902308625759641</v>
+        <v>3.6902312327883067</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>5.0614775019780156</v>
+        <v>5.0614776786299105</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>3.5963691692511039</v>
+        <v>3.5963696025617522</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>4.0133190949829096</v>
+        <v>4.0133203593311526</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>4.350913081961715</v>
+        <v>4.3509124875946918</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>6.1820584917281431</v>
+        <v>6.1820573045851051</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>4.5600045808226186</v>
+        <v>4.5600048720994568</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>4.4623614061366697</v>
+        <v>4.4623620923413174</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>6.8426001018718647</v>
+        <v>6.8425974871825055</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>6.1753701638717704</v>
+        <v>6.1753696659047694</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>6.532626747703393</v>
+        <v>6.5326283313773601</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>4.8814752127856886</v>
+        <v>4.8814750030756704</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>6.851282642834974</v>
+        <v>6.8512815718242237</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>7.8717416648307141</v>
+        <v>7.8717405641516764</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>6.1074006364322333</v>
+        <v>6.1074008815301317</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>4.3082427133732235</v>
+        <v>4.3082434629553799</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>5.4939471769374739</v>
+        <v>5.4939498807602796</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>6.2374070105214479</v>
+        <v>6.2374082056783262</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>4.7601622881234489</v>
+        <v>4.7601627482030171</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>5.7842720845060498</v>
+        <v>5.7842716568976922</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>6.7488190415944089</v>
+        <v>6.7488185690235598</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>6.0355008786332913</v>
+        <v>6.0355024362431759</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>4.0142836899499965</v>
+        <v>4.0142831274886932</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>5.7270515985198021</v>
+        <v>5.7270498851261475</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>8.2650668263497593</v>
+        <v>8.2650669913821275</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>4.2133610270039608</v>
+        <v>4.2133609094390962</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>4.562534844121874</v>
+        <v>4.5625349102219621</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>3.175633058033803</v>
+        <v>3.1756337203933818</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>4.076197553387745</v>
+        <v>4.0761976459043101</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>4.3061550192055496</v>
+        <v>4.3061553003446384</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>4.153157012604586</v>
+        <v>4.1531581911970195</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>6.2610089271845784</v>
+        <v>6.2610077125696275</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>5.7376281152193931</v>
+        <v>5.7376276895232836</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>6.2821142817749323</v>
+        <v>6.2821148256003125</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>6.207326527238699</v>
+        <v>6.2073261690282351</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>6.1910179400488676</v>
+        <v>6.1910174104354416</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>4.8661774223330401</v>
+        <v>4.8661771828716631</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>6.4284342658541753</v>
+        <v>6.4284322610914248</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>7.092026343473246</v>
+        <v>7.0920258161271477</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>5.9336381498803075</v>
+        <v>5.9336407840418648</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>6.9274157301260697</v>
+        <v>6.9274155216585944</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>5.6653586144461663</v>
+        <v>5.6653579877158702</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>7.2288250363281001</v>
+        <v>7.2288248306301996</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>6.5794484166726361</v>
+        <v>6.5794499517448211</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>7.4802971375442198</v>
+        <v>7.4802962348129132</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>8.8556533345329758</v>
+        <v>8.8556530022678004</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>9.9848501286432771</v>
+        <v>9.9848493797716955</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>9.136951844751259</v>
+        <v>9.1369520528644959</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>10.510632189782193</v>
+        <v>10.510632049887304</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>9.9705299821338649</v>
+        <v>9.9705287723109564</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>11.42369584760584</v>
+        <v>11.423697267686071</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>11.373474071527859</v>
+        <v>11.373474862042556</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>11.827342790618607</v>
+        <v>11.8273410900209</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>12.185409399080768</v>
+        <v>12.185409195893779</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>14.875912737553056</v>
+        <v>14.875909581524418</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>14.704918957161413</v>
+        <v>14.704918556456025</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>10.852881117622175</v>
+        <v>10.85288017349489</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>9.3032032193021656</v>
+        <v>9.3032030682091591</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>10.995804058706641</v>
+        <v>10.99580540700437</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>15.105766047824217</v>
+        <v>15.105760419772249</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>11.908188884626302</v>
+        <v>11.908190128217477</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>13.671400549349849</v>
+        <v>13.671400795531651</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>10.856236004614516</v>
+        <v>10.856237291878482</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>11.150595939145923</v>
+        <v>11.150598111457366</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>10.190666005941848</v>
+        <v>10.190667347055033</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>9.5211893524699995</v>
+        <v>9.5211853930661157</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>12.874722926837585</v>
+        <v>12.874723534470256</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>17.046296799172296</v>
+        <v>17.046300219796922</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>14.300514606874939</v>
+        <v>14.30051184534646</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>12.677409324933175</v>
+        <v>12.677409848088253</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>12.228665166765447</v>
+        <v>12.228663222035514</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>10.061445760928166</v>
+        <v>10.061447106913484</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>11.04611640893666</v>
+        <v>11.046116193699401</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>12.893140287946682</v>
+        <v>12.893138193415762</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>11.573263598007465</v>
+        <v>11.57326512868462</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>12.812405094991178</v>
+        <v>12.812406616308529</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>13.404143981357018</v>
+        <v>13.404148504623629</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>9.8145745030353719</v>
+        <v>9.8145752106680924</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>9.0699181600070737</v>
+        <v>9.0699146199450063</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>9.4365498289892571</v>
+        <v>9.4365502810146538</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>11.607325899020974</v>
+        <v>11.607324760358987</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>13.380027249497459</v>
+        <v>13.380030117838388</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>14.905380554744283</v>
+        <v>14.905381376649018</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>15.426346924645088</v>
+        <v>15.426347599320103</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>15.820232682436821</v>
+        <v>15.820236265976469</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>18.450029256224372</v>
+        <v>18.450030245596093</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>20.066912598476499</v>
+        <v>20.066908010239697</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>25.973278728953762</v>
+        <v>25.973278048224042</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>20.416946550871707</v>
+        <v>20.41694922866002</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>22.154488215288428</v>
+        <v>22.154491761962706</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>28.257021296609992</v>
+        <v>28.25702105149805</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>29.146327875679596</v>
+        <v>29.146330236527152</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>26.825012552946689</v>
+        <v>26.825014311189967</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>30.354665296808189</v>
+        <v>30.35466465775616</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>37.299722439862315</v>
+        <v>37.299725928719667</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>45.823817695572373</v>
+        <v>45.823816902485355</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>47.082177080208915</v>
+        <v>47.082180281126952</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>49.100064224667477</v>
+        <v>49.100064199688248</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>50.088597838972071</v>
+        <v>50.088594548530267</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>51.313731210708738</v>
+        <v>51.313749074660741</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>44.788788353902305</v>
+        <v>44.788787114907464</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>55.938342394398774</v>
+        <v>55.938338038291683</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>49.567368372462909</v>
+        <v>49.567380622456035</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>49.046597352504349</v>
+        <v>49.046599331007023</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>41.88837733078897</v>
+        <v>41.888375220836082</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>49.345365616786211</v>
+        <v>49.345383039736163</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>46.144736452587793</v>
+        <v>46.144732856904824</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>43.891464506709887</v>
+        <v>43.891462124273957</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>57.637429678309474</v>
+        <v>57.63741124213783</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>46.542374845313475</v>
+        <v>46.542375207849467</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>40.127018042917506</v>
+        <v>40.127028887440225</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>37.491084320592854</v>
+        <v>37.491088565373609</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>41.906302554294676</v>
+        <v>41.906302346239116</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>41.139115621210578</v>
+        <v>41.139119485615808</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>36.299221979745639</v>
+        <v>36.299220625123958</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>42.504163873968793</v>
+        <v>42.504158715850139</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>33.799074311545496</v>
+        <v>33.799070622443125</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>35.614219710362292</v>
+        <v>35.614219172964098</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>38.155648087245211</v>
+        <v>38.155650068733152</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>34.663193177778396</v>
+        <v>34.663196784200309</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>32.867067656183565</v>
+        <v>32.867067881111893</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>31.236366874911326</v>
+        <v>31.236363798869039</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>33.618122756171132</v>
+        <v>33.618122792562325</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>29.386127093520123</v>
+        <v>29.386137054529506</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>29.811785849854857</v>
+        <v>29.811788706650049</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>26.567263756154055</v>
+        <v>26.56726345148639</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>27.646401888866293</v>
+        <v>27.646395701206323</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>24.181052422151875</v>
+        <v>24.181052720920807</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>23.40746739640807</v>
+        <v>23.407466042636816</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>31.129691581630908</v>
+        <v>31.129687437397337</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>29.948774046796558</v>
+        <v>29.948776453945776</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>21.761915401780911</v>
+        <v>21.761914627836703</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>23.556103191477455</v>
+        <v>23.556104441702566</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>22.686465400964767</v>
+        <v>22.686464961715053</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>18.401842560685267</v>
+        <v>18.401842175223891</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>17.385605437047413</v>
+        <v>17.385605180518805</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>19.396901477563894</v>
+        <v>19.396902954288198</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>15.718400368644101</v>
+        <v>15.718401011840839</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>16.131025123904681</v>
+        <v>16.131029724679291</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>14.949045984751546</v>
+        <v>14.94904339648998</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>14.037235955572369</v>
+        <v>14.037232547638503</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>10.092980870104896</v>
+        <v>10.092980978118229</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>11.302813826829762</v>
+        <v>11.302815216490899</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>12.80193965987146</v>
+        <v>12.801939327564011</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>11.062238678874531</v>
+        <v>11.062235956620066</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>9.7678866804886333</v>
+        <v>9.7678870750840421</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>9.4019430187554107</v>
+        <v>9.4019419368382913</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>10.674938935557977</v>
+        <v>10.674936115751382</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>7.4143582049700871</v>
+        <v>7.4143599859341052</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>8.2689980357899238</v>
+        <v>8.2689976938807366</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>9.5062061324074527</v>
+        <v>9.5062092840422352</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>10.903166595768992</v>
+        <v>10.90316545603152</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>10.50888547092417</v>
+        <v>10.508886609419056</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>7.7326148841194913</v>
+        <v>7.7326139190695509</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>6.7516522157467893</v>
+        <v>6.7516502289274687</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>8.6104425359977235</v>
+        <v>8.6104419474296812</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>6.7749752464875712</v>
+        <v>6.7749755800213451</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>7.0308458760518509</v>
+        <v>7.0308450266596214</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>5.9190177257959151</v>
+        <v>5.9190198165973325</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>6.1885166345972316</v>
+        <v>6.1885145293118571</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>8.0423926219968287</v>
+        <v>8.0423864382779957</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>8.6291707034651939</v>
+        <v>8.6291726280594148</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>7.3711225601125641</v>
+        <v>7.3711245669647987</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>6.0028929550759011</v>
+        <v>6.0028938184152878</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>7.368996439142137</v>
+        <v>7.3689946862036786</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>6.9869108021406312</v>
+        <v>6.9869120746357813</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>8.4654340958902647</v>
+        <v>8.4654309766555293</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>9.3447012882755729</v>
+        <v>9.3447012639636213</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>7.9699828824363657</v>
+        <v>7.9699862680136233</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>7.7669470501506686</v>
+        <v>7.7669482660680771</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>6.7127617516830096</v>
+        <v>6.7127609436368569</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>6.9945645791445283</v>
+        <v>6.9945651611436164</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>9.4383819719729463</v>
+        <v>9.4383855272983403</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>8.3797913287025843</v>
+        <v>8.3797906885600248</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>8.2646722229540082</v>
+        <v>8.2646718280790985</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>7.0377508358954373</v>
+        <v>7.037753568659924</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>9.972755994913534</v>
+        <v>9.9727552244791511</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>7.2949365154514965</v>
+        <v>7.2949367087821599</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>6.7038627988917305</v>
+        <v>6.7038646823438155</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>8.4265458371351851</v>
+        <v>8.4265476349905111</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>8.3876243471228058</v>
+        <v>8.3876272793963942</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>8.1814016720714804</v>
+        <v>8.1814010856115846</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>5.6010565575510167</v>
+        <v>5.6010561785015494</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>7.6335378592685146</v>
+        <v>7.6335436016389346</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>7.1328449152851157</v>
+        <v>7.1328429026383997</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>6.978495817998299</v>
+        <v>6.9784970434818314</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>8.8282335754231944</v>
+        <v>8.828232173630397</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>8.065985190153139</v>
+        <v>8.0659840915947836</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>7.4470761461574391</v>
+        <v>7.4470726082911174</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>5.7417075882017983</v>
+        <v>5.7417066776195167</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>5.7896876480412347</v>
+        <v>5.7896879459569215</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>7.6548361929710609</v>
+        <v>7.654833987728388</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>10.402322202513973</v>
+        <v>10.402319098597959</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>7.7353729770772315</v>
+        <v>7.7353713019083221</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>7.8751783044107446</v>
+        <v>7.8751799845666071</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>9.996317358182397</v>
+        <v>9.9963136667985815</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>9.3396122973923372</v>
+        <v>9.3396070255971306</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>9.9015715806418605</v>
+        <v>9.9015750255606587</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>9.3133832578660893</v>
+        <v>9.3133844999226945</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>12.558963419222154</v>
+        <v>12.558965625670258</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>10.487640635766311</v>
+        <v>10.487641747358522</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>11.752774065815046</v>
+        <v>11.752776646828616</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>10.049962948547753</v>
+        <v>10.049960343273231</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>8.967834776615387</v>
+        <v>8.9678356154915679</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>8.4534579065971762</v>
+        <v>8.4534558569154203</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>7.9294317149838012</v>
+        <v>7.9294310231859733</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>7.0315745495139055</v>
+        <v>7.0315738251342328</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>10.368577538015135</v>
+        <v>10.368584303208626</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>9.0246494451708479</v>
+        <v>9.024650649672747</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>9.1613689023614633</v>
+        <v>9.1613709050587069</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>8.4606777474919639</v>
+        <v>8.4606798374401961</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>7.8724387665448559</v>
+        <v>7.8724360314062567</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>7.139619308412847</v>
+        <v>7.1396208347042371</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>7.8210237100705857</v>
+        <v>7.8210199283397479</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>8.5908501249712383</v>
+        <v>8.5908523386525228</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>8.2817176923875575</v>
+        <v>8.2817221740855409</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>8.927675497229103</v>
+        <v>8.9276798185979338</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>7.8264987730360982</v>
+        <v>7.8264988311440913</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>8.5847133738544397</v>
+        <v>8.5847122491611287</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>9.7626177702682728</v>
+        <v>9.7626173359220463</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>11.113936534516178</v>
+        <v>11.113934017433813</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>10.403655942414893</v>
+        <v>10.403658729938105</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>9.2327551527744394</v>
+        <v>9.2327565131771241</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>8.4984757270031981</v>
+        <v>8.4984723857761075</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>7.5369662445535832</v>
+        <v>7.5369634731766055</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>7.9700176110948977</v>
+        <v>7.9700187478422384</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>5.338403618663806</v>
+        <v>5.3384037665444382</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>6.5312472217198057</v>
+        <v>6.5312486074313387</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>9.4300156302265687</v>
+        <v>9.4300158355621235</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>9.09904086565912</v>
+        <v>9.0990424919984125</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>10.328835942521046</v>
+        <v>10.328835333922822</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>7.3072715688596084</v>
+        <v>7.3072733070430784</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>6.9312076545304677</v>
+        <v>6.9312082940318689</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>7.176086974870163</v>
+        <v>7.1760836471760268</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>7.2545325212052294</v>
+        <v>7.2545326114605349</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>7.0976756041209326</v>
+        <v>7.0976768703482156</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>6.3182913614934613</v>
+        <v>6.3182921718649698</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>6.7979615482580398</v>
+        <v>6.7979575837024031</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>8.9590376067477884</v>
+        <v>8.9590352345144701</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>9.3219140564168459</v>
+        <v>9.3219149077139498</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>7.9271030078659459</v>
+        <v>7.9271013082045378</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>11.366152451934187</v>
+        <v>11.366148979403977</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>7.5899007024705991</v>
+        <v>7.5899017487779759</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>9.2814422078336705</v>
+        <v>9.2814381729719386</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>9.6659936525654562</v>
+        <v>9.6659920460767967</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>11.26496097718892</v>
+        <v>11.264963040764123</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>9.3880964996783955</v>
+        <v>9.3880968023298728</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>8.7925751053497105</v>
+        <v>8.7925734329058773</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>7.3565710249195924</v>
+        <v>7.3565704207115923</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>7.0824958427148585</v>
+        <v>7.0824998841643811</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>8.9141623016339775</v>
+        <v>8.9141582869876803</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>6.836060437049559</v>
+        <v>6.8360616568231212</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>8.9592307846790327</v>
+        <v>8.9592296285018804</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>7.0005448467562719</v>
+        <v>7.0005454414915107</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>7.069469995544166</v>
+        <v>7.0694706119873141</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>6.3950498571060184</v>
+        <v>6.3950534552040788</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>7.3882122721431784</v>
+        <v>7.3882129214833858</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>7.3692417274799009</v>
+        <v>7.3692401979372306</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>8.9535251486677048</v>
+        <v>8.9535228853687148</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>8.7783753103015627</v>
+        <v>8.7783791610783783</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>7.466796401182652</v>
+        <v>7.4667970077987391</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>5.9925299577729731</v>
+        <v>5.9925276410888815</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>8.4164033255706308</v>
+        <v>8.4164026359558246</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>7.6687968949305976</v>
+        <v>7.6687966683002022</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>6.5521110545898882</v>
+        <v>6.5521099394171962</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>6.8730066422793463</v>
+        <v>6.8730073506717551</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>5.9462083123081175</v>
+        <v>5.946209009078018</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>4.6128887658407498</v>
+        <v>4.6128886520054371</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>3.839758504226471</v>
+        <v>3.839758508220811</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>5.7884201527979364</v>
+        <v>5.7884185864323596</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>4.1965349570555812</v>
+        <v>4.1965347104087698</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>6.3806853287973624</v>
+        <v>6.3806841998625101</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>5.0565158741030887</v>
+        <v>5.0565156275479</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>3.7685281839223959</v>
+        <v>3.7685279052656719</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>3.0064676138046469</v>
+        <v>3.006466876991321</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>4.0970207681908821</v>
+        <v>4.0970193005698441</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>4.466149297283831</v>
+        <v>4.4661485178313374</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>3.3963664743957294</v>
+        <v>3.3963673166506267</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>2.7032717778269975</v>
+        <v>2.703272195602453</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>2.1348409818121956</v>
+        <v>2.134840808733232</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>2.4582943023301205</v>
+        <v>2.4582938461321984</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>2.9065362052295116</v>
+        <v>2.9065355629664422</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>2.7138468857190183</v>
+        <v>2.7138456326560627</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>1.962123848999016</v>
+        <v>1.9621238832740462</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>2.2269934108903513</v>
+        <v>2.2269932655779661</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>1.972295041275145</v>
+        <v>1.9722958777444912</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>2.0596063582236352</v>
+        <v>2.0596071921272587</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>2.0888818209468907</v>
+        <v>2.0888822424649467</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>1.7536113584837933</v>
+        <v>1.753611335235572</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>1.2974891016927792</v>
+        <v>1.2974887777256066</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>0.97345773034217542</v>
+        <v>0.97345803117431196</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>0.86640261108267014</v>
+        <v>0.86640285649217819</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>1.6945068779351118</v>
+        <v>1.6945066344613866</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>2.5017624306263233</v>
+        <v>2.501762359049982</v>
       </c>
     </row>
     <row r="465">
       <c r="A465">
-        <v>1.8903119858523922</v>
+        <v>1.8903123969719844</v>
       </c>
     </row>
   </sheetData>
